--- a/shift/20210825 shift-test.xlsx
+++ b/shift/20210825 shift-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c142618</t>
+          <t>https://shift.com/car/2018-silver-tesla-model-3/c130303</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,14 +495,14 @@
         <v>2018</v>
       </c>
       <c r="D2" t="n">
-        <v>47950</v>
+        <v>39950</v>
       </c>
       <c r="E2" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Long Range Battery</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -517,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c142637</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c193404</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,14 +536,14 @@
         <v>2018</v>
       </c>
       <c r="D3" t="n">
-        <v>43500</v>
+        <v>46500</v>
       </c>
       <c r="E3" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Long Range Battery</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -558,14 +558,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c1440458</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c171791</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,17 +574,17 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="n">
-        <v>40950</v>
+        <v>45950</v>
       </c>
       <c r="E4" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-red-tesla-model-3/c1443721</t>
+          <t>https://shift.com/car/2018-blue-tesla-model-3/c164605</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,14 +618,14 @@
         <v>2018</v>
       </c>
       <c r="D5" t="n">
-        <v>45950</v>
+        <v>41950</v>
       </c>
       <c r="E5" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -640,14 +640,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c1451693</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c142637</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,10 +659,10 @@
         <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>43950</v>
+        <v>43500</v>
       </c>
       <c r="E6" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -681,14 +681,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-blue-tesla-model-3/c1478306</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c1691660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,17 +697,17 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="n">
-        <v>42500</v>
+        <v>40950</v>
       </c>
       <c r="E7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -722,14 +722,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-blue-tesla-model-3/c1485919</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c1170874</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -738,17 +738,17 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D8" t="n">
-        <v>41950</v>
+        <v>41500</v>
       </c>
       <c r="E8" t="n">
-        <v>47000</v>
+        <v>21000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -763,14 +763,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c1500700</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c153526</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,17 +779,17 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D9" t="n">
-        <v>47500</v>
+        <v>40350</v>
       </c>
       <c r="E9" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Long Range Battery</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -804,14 +804,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-blue-tesla-model-3/c150922</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c1440458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,17 +820,17 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="n">
-        <v>43950</v>
+        <v>40950</v>
       </c>
       <c r="E10" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -845,14 +845,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c1528089</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c137658</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,17 +861,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="n">
-        <v>41500</v>
+        <v>41950</v>
       </c>
       <c r="E11" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -886,14 +886,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c153526</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c1027710</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D12" t="n">
-        <v>40350</v>
+        <v>42950</v>
       </c>
       <c r="E12" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -927,14 +927,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c127312</t>
+          <t>https://shift.com/car/2018-blue-tesla-model-3/c1485919</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="n">
-        <v>44950</v>
+        <v>41950</v>
       </c>
       <c r="E13" t="n">
-        <v>37000</v>
+        <v>47000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-blue-tesla-model-3/c1285558</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c1572503</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,17 +984,17 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D14" t="n">
-        <v>53950</v>
+        <v>40250</v>
       </c>
       <c r="E14" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1009,14 +1009,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c1293743</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c1960774</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,17 +1025,17 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D15" t="n">
-        <v>49950</v>
+        <v>41950</v>
       </c>
       <c r="E15" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-silver-tesla-model-3/c130303</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c175432</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1069,14 +1069,14 @@
         <v>2018</v>
       </c>
       <c r="D16" t="n">
-        <v>39950</v>
+        <v>41950</v>
       </c>
       <c r="E16" t="n">
-        <v>47000</v>
+        <v>37000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c131100</t>
+          <t>https://shift.com/car/2018-blue-tesla-model-3/c150922</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,17 +1107,17 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="n">
-        <v>42950</v>
+        <v>43950</v>
       </c>
       <c r="E17" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1132,14 +1132,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c1365859</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c120315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1151,14 +1151,14 @@
         <v>2018</v>
       </c>
       <c r="D18" t="n">
-        <v>42150</v>
+        <v>40500</v>
       </c>
       <c r="E18" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1173,14 +1173,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c137658</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c1984364</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,17 +1189,17 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="n">
         <v>41950</v>
       </c>
       <c r="E19" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c115176</t>
+          <t>https://shift.com/car/2020-blue-tesla-model-3/c1285558</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1233,14 +1233,14 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>42950</v>
+        <v>53950</v>
       </c>
       <c r="E20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c1170874</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c1500700</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,17 +1271,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D21" t="n">
-        <v>41500</v>
+        <v>47500</v>
       </c>
       <c r="E21" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range Battery</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1296,33 +1296,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-black-tesla-model-y/c1186525</t>
+          <t>https://shift.com/car/2019-blue-tesla-model-3/c105511</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D22" t="n">
-        <v>64600</v>
+        <v>48950</v>
       </c>
       <c r="E22" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1337,33 +1337,33 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c120315</t>
+          <t>https://shift.com/car/2020-red-tesla-model-y/c195739</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>40500</v>
+        <v>64950</v>
       </c>
       <c r="E23" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1378,14 +1378,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con15IMBNh06fp5KaknmXyzgUZ9Gg4dRXBn2JwgoEP3ZvZgqzWVUrJ?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con136hEbV3VMJ4GJv4Xofr1q3n3DV9fa6ctXNUifJwTxP4AYfKfXj?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c1221468</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c170665</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1397,14 +1397,14 @@
         <v>2018</v>
       </c>
       <c r="D24" t="n">
-        <v>43500</v>
+        <v>41950</v>
       </c>
       <c r="E24" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c122804</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c110936</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,17 +1435,17 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D25" t="n">
-        <v>54450</v>
+        <v>40500</v>
       </c>
       <c r="E25" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1460,14 +1460,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c100522</t>
+          <t>https://shift.com/car/2019-blue-tesla-model-3/c1478306</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1479,10 +1479,10 @@
         <v>2019</v>
       </c>
       <c r="D26" t="n">
-        <v>41950</v>
+        <v>42500</v>
       </c>
       <c r="E26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1501,14 +1501,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c101587</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c1793220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>41450</v>
+        <v>42950</v>
       </c>
       <c r="E27" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1542,14 +1542,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2017-blue-tesla-model-3/c1027117</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c1365859</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D28" t="n">
-        <v>41950</v>
+        <v>42150</v>
       </c>
       <c r="E28" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c1027710</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c1738204</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1602,14 +1602,14 @@
         <v>2019</v>
       </c>
       <c r="D29" t="n">
-        <v>42950</v>
+        <v>41500</v>
       </c>
       <c r="E29" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1624,14 +1624,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-blue-tesla-model-3/c1053984</t>
+          <t>https://shift.com/car/2019-silver-tesla-model-3/c158614</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="n">
-        <v>43500</v>
+        <v>39550</v>
       </c>
       <c r="E30" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1665,14 +1665,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-blue-tesla-model-3/c105511</t>
+          <t>https://shift.com/car/2019-red-tesla-model-3/c108154</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1684,10 +1684,10 @@
         <v>2019</v>
       </c>
       <c r="D31" t="n">
-        <v>48950</v>
+        <v>47500</v>
       </c>
       <c r="E31" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1706,14 +1706,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-red-tesla-model-3/c108154</t>
+          <t>https://shift.com/car/2020-red-tesla-model-3/c196835</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,17 +1722,17 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>47500</v>
+        <v>55950</v>
       </c>
       <c r="E32" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1747,14 +1747,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-blue-tesla-model-3/c1086453</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c122804</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1766,14 +1766,14 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>40950</v>
+        <v>54450</v>
       </c>
       <c r="E33" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1788,33 +1788,33 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c110936</t>
+          <t>https://shift.com/car/2020-silver-tesla-model-y/c139047</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>40500</v>
+        <v>62950</v>
       </c>
       <c r="E34" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1829,33 +1829,33 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-silver-tesla-model-y/c139047</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c131100</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>62950</v>
+        <v>42950</v>
       </c>
       <c r="E35" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1870,14 +1870,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-silver-tesla-model-3/c139865</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c155605</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,17 +1886,17 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>44950</v>
+        <v>41950</v>
       </c>
       <c r="E36" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c155605</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c100522</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D37" t="n">
         <v>41950</v>
@@ -1952,14 +1952,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c1572503</t>
+          <t>https://shift.com/car/2017-blue-tesla-model-3/c1027117</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,17 +1968,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="n">
-        <v>40250</v>
+        <v>41950</v>
       </c>
       <c r="E38" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c193404</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c199872</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2012,14 +2012,14 @@
         <v>2018</v>
       </c>
       <c r="D39" t="n">
-        <v>46500</v>
+        <v>40950</v>
       </c>
       <c r="E39" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Long Range Battery</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2034,33 +2034,33 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-red-tesla-model-y/c195739</t>
+          <t>https://shift.com/car/2018-silver-tesla-model-3/c139865</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D40" t="n">
-        <v>64950</v>
+        <v>44950</v>
       </c>
       <c r="E40" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c1960774</t>
+          <t>https://shift.com/car/2018-silver-tesla-model-3/c1786823</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2091,17 +2091,17 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="n">
-        <v>41950</v>
+        <v>41500</v>
       </c>
       <c r="E41" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2116,14 +2116,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-red-tesla-model-3/c196835</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c165125</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,17 +2132,17 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
-        <v>55950</v>
+        <v>43950</v>
       </c>
       <c r="E42" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2157,14 +2157,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c197759</t>
+          <t>https://shift.com/car/2020-blue-tesla-model-3/c1053984</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="E43" t="n">
         <v>15000</v>
@@ -2198,14 +2198,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c1984364</t>
+          <t>https://shift.com/car/2019-red-tesla-model-3/c181234</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2217,14 +2217,14 @@
         <v>2019</v>
       </c>
       <c r="D44" t="n">
-        <v>41950</v>
+        <v>49500</v>
       </c>
       <c r="E44" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2239,14 +2239,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c170665</t>
+          <t>https://shift.com/car/2020-blue-tesla-model-3/c1086453</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2255,17 +2255,17 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>41950</v>
+        <v>40950</v>
       </c>
       <c r="E45" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c171791</t>
+          <t>https://shift.com/car/2019-silver-tesla-model-3/c1995784</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,17 +2296,17 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D46" t="n">
-        <v>45950</v>
+        <v>41950</v>
       </c>
       <c r="E46" t="n">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c1718696</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c1451693</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,17 +2337,17 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="n">
-        <v>41950</v>
+        <v>43950</v>
       </c>
       <c r="E47" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2362,14 +2362,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1r9pgGjJRnAG2bWfSMp9k60r2V55glJvoy48xwMypBzEeVhxnWi?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1EQ6K0FEw6VfRjLGVN4I1fN4RovqnyAc5yKgXvOtxgze3PlQpzN?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c1738204</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c115176</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,17 +2378,17 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>41500</v>
+        <v>42950</v>
       </c>
       <c r="E48" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c175432</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c197759</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,17 +2419,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D49" t="n">
-        <v>41950</v>
+        <v>42500</v>
       </c>
       <c r="E49" t="n">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2444,14 +2444,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-silver-tesla-model-3/c1786823</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c1293743</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2463,14 +2463,14 @@
         <v>2018</v>
       </c>
       <c r="D50" t="n">
-        <v>41500</v>
+        <v>49950</v>
       </c>
       <c r="E50" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2485,14 +2485,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c1793220</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c1718696</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="n">
-        <v>42950</v>
+        <v>41950</v>
       </c>
       <c r="E51" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2526,14 +2526,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-blue-tesla-model-3/c164605</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c1221468</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2545,14 +2545,14 @@
         <v>2018</v>
       </c>
       <c r="D52" t="n">
-        <v>41950</v>
+        <v>43500</v>
       </c>
       <c r="E52" t="n">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2567,14 +2567,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c165125</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c1528089</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D53" t="n">
-        <v>43950</v>
+        <v>41500</v>
       </c>
       <c r="E53" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2608,14 +2608,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c167863</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c1929506</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="n">
-        <v>49950</v>
+        <v>42950</v>
       </c>
       <c r="E54" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c1691660</t>
+          <t>https://shift.com/car/2017-blue-tesla-model-3/c1396421</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2665,17 +2665,17 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="n">
-        <v>40950</v>
+        <v>42950</v>
       </c>
       <c r="E55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2690,33 +2690,33 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-red-tesla-model-3/c181234</t>
+          <t>https://shift.com/car/2018-white-tesla-model-x/c1583452</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D56" t="n">
-        <v>49500</v>
+        <v>73950</v>
       </c>
       <c r="E56" t="n">
-        <v>20000</v>
+        <v>37000</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2731,14 +2731,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-silver-tesla-model-3/c1995784</t>
+          <t>https://shift.com/car/2019-red-tesla-model-3/c189592</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2750,10 +2750,10 @@
         <v>2019</v>
       </c>
       <c r="D57" t="n">
-        <v>41950</v>
+        <v>42500</v>
       </c>
       <c r="E57" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2772,14 +2772,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c199872</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c1402621</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2791,14 +2791,14 @@
         <v>2018</v>
       </c>
       <c r="D58" t="n">
-        <v>40950</v>
+        <v>41950</v>
       </c>
       <c r="E58" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2813,14 +2813,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-silver-tesla-model-3/c158614</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c167863</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2832,14 +2832,14 @@
         <v>2019</v>
       </c>
       <c r="D59" t="n">
-        <v>39550</v>
+        <v>49500</v>
       </c>
       <c r="E59" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2854,14 +2854,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-red-tesla-model-3/c189592</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c142618</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,17 +2870,17 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D60" t="n">
-        <v>42500</v>
+        <v>47950</v>
       </c>
       <c r="E60" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range Battery</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2895,33 +2895,33 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-x/c1583452</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c139710</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D61" t="n">
-        <v>73950</v>
+        <v>42950</v>
       </c>
       <c r="E61" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2936,33 +2936,33 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c1929506</t>
+          <t>https://shift.com/car/2020-black-tesla-model-y/c1186525</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>42950</v>
+        <v>64600</v>
       </c>
       <c r="E62" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2977,14 +2977,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2017-blue-tesla-model-3/c1396421</t>
+          <t>https://shift.com/car/2018-red-tesla-model-3/c155895</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D63" t="n">
-        <v>42950</v>
+        <v>43950</v>
       </c>
       <c r="E63" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3013,19 +3013,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>COMING SOON</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c1402621</t>
+          <t>https://shift.com/car/2019-silver-tesla-model-3/c1077948</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3034,17 +3034,17 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D64" t="n">
-        <v>41950</v>
+        <v>40950</v>
       </c>
       <c r="E64" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
@@ -3100,33 +3100,33 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-silver-tesla-model-x/c1012947</t>
+          <t>https://shift.com/car/2018-red-tesla-model-3/c1728039</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2018</v>
       </c>
       <c r="D66" t="n">
-        <v>72500</v>
+        <v>42950</v>
       </c>
       <c r="E66" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3141,14 +3141,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-silver-tesla-model-3/c1077948</t>
+          <t>https://shift.com/car/2018-red-tesla-model-3/c1244193</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,17 +3157,17 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D67" t="n">
         <v>40950</v>
       </c>
       <c r="E67" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3182,14 +3182,14 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-red-tesla-model-3/c155895</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c148319</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3201,10 +3201,10 @@
         <v>2018</v>
       </c>
       <c r="D68" t="n">
-        <v>43950</v>
+        <v>45950</v>
       </c>
       <c r="E68" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3223,33 +3223,33 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-red-tesla-model-3/c1244193</t>
+          <t>https://shift.com/car/2018-silver-tesla-model-x/c1012947</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2018</v>
       </c>
       <c r="D69" t="n">
-        <v>40950</v>
+        <v>72500</v>
       </c>
       <c r="E69" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3264,33 +3264,33 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-red-tesla-model-3/c1728039</t>
+          <t>https://shift.com/car/2017-black-tesla-model-x/c1107044</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D70" t="n">
-        <v>42950</v>
+        <v>65950</v>
       </c>
       <c r="E70" t="n">
-        <v>26000</v>
+        <v>49000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3300,38 +3300,38 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>COMING SOON</t>
+          <t>SALE PENDING</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2015-black-tesla-model-s/c141162</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c182939</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>37950</v>
+        <v>41950</v>
       </c>
       <c r="E71" t="n">
-        <v>73000</v>
+        <v>19000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>70 kWh Battery</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3346,14 +3346,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1UmuRgJf4gCzSjw2E5y3xqLMHB2hPWuyPyhBFyP7J0rYBJbhdRB?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1UJyEUYdKIPrcxbJCuG8PUmW3KU3DaE5j3uTxVZpuDtWmcQOBOt?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c145066</t>
+          <t>https://shift.com/car/2018-white-tesla-model-3/c145949</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3362,17 +3362,17 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D72" t="n">
-        <v>51950</v>
+        <v>46750</v>
       </c>
       <c r="E72" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Long Range Battery</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3387,33 +3387,33 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-white-tesla-model-3/c145949</t>
+          <t>https://shift.com/car/2017-silver-tesla-model-s/c109083</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D73" t="n">
-        <v>46750</v>
+        <v>50950</v>
       </c>
       <c r="E73" t="n">
-        <v>14000</v>
+        <v>42000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Long Range Battery</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3428,33 +3428,33 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-blue-tesla-model-3/c1485868</t>
+          <t>https://shift.com/car/2018-silver-tesla-model-x/c181720</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D74" t="n">
-        <v>49950</v>
+        <v>71950</v>
       </c>
       <c r="E74" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c1497754</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c127417</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3485,17 +3485,17 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D75" t="n">
-        <v>44950</v>
+        <v>40950</v>
       </c>
       <c r="E75" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3510,14 +3510,14 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-silver-tesla-model-3/c151209</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c109215</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3526,17 +3526,17 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>40950</v>
+        <v>48950</v>
       </c>
       <c r="E76" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3551,33 +3551,33 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c102031</t>
+          <t>https://shift.com/car/2013-tesla-model-s/c1674157</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>41300</v>
+        <v>29500</v>
       </c>
       <c r="E77" t="n">
-        <v>23000</v>
+        <v>92000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3592,33 +3592,33 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c109215</t>
+          <t>https://shift.com/car/2015-black-tesla-model-s/c141162</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>48950</v>
+        <v>37950</v>
       </c>
       <c r="E78" t="n">
-        <v>17000</v>
+        <v>73000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>70 kWh Battery</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3633,14 +3633,14 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c182939</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c177547</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3652,14 +3652,14 @@
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>41950</v>
+        <v>53950</v>
       </c>
       <c r="E79" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3674,14 +3674,14 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-silver-tesla-model-3/c191014</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c102031</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3693,10 +3693,10 @@
         <v>2019</v>
       </c>
       <c r="D80" t="n">
-        <v>41950</v>
+        <v>41300</v>
       </c>
       <c r="E80" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3715,14 +3715,14 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-black-tesla-model-3/c170491</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c1497754</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D81" t="n">
         <v>44950</v>
       </c>
       <c r="E81" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3756,14 +3756,14 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c177547</t>
+          <t>https://shift.com/car/2019-silver-tesla-model-3/c151209</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3772,17 +3772,17 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D82" t="n">
-        <v>53950</v>
+        <v>40950</v>
       </c>
       <c r="E82" t="n">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c160048</t>
+          <t>https://shift.com/car/2020-white-tesla-model-3/c145066</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3813,17 +3813,17 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D83" t="n">
-        <v>40950</v>
+        <v>51950</v>
       </c>
       <c r="E83" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3838,33 +3838,33 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2013-tesla-model-s/c1674157</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c170491</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D84" t="n">
-        <v>29500</v>
+        <v>44950</v>
       </c>
       <c r="E84" t="n">
-        <v>92000</v>
+        <v>25000</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3879,33 +3879,33 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2015-silver-tesla-model-s/c168876</t>
+          <t>https://shift.com/car/2018-blue-tesla-model-3/c1110400</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="n">
-        <v>58950</v>
+        <v>38950</v>
       </c>
       <c r="E85" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>P90D</t>
+          <t>Mid Range Battery</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3920,33 +3920,33 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-silver-tesla-model-x/c181720</t>
+          <t>https://shift.com/car/2019-white-tesla-model-3/c160048</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="n">
-        <v>71950</v>
+        <v>40950</v>
       </c>
       <c r="E86" t="n">
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3961,14 +3961,14 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2020-silver-tesla-model-3/c139135</t>
+          <t>https://shift.com/car/2019-silver-tesla-model-3/c191014</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D87" t="n">
-        <v>41500</v>
+        <v>41950</v>
       </c>
       <c r="E87" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4002,14 +4002,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2018-blue-tesla-model-3/c1110400</t>
+          <t>https://shift.com/car/2018-black-tesla-model-3/c140548</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4021,14 +4021,14 @@
         <v>2018</v>
       </c>
       <c r="D88" t="n">
-        <v>38950</v>
+        <v>46500</v>
       </c>
       <c r="E88" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mid Range Battery</t>
+          <t>Long Range Battery</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4038,38 +4038,38 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SALE PENDING</t>
+          <t>Available Now</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c133476</t>
+          <t>https://shift.com/car/2015-silver-tesla-model-s/c168876</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>39950</v>
+        <v>58950</v>
       </c>
       <c r="E89" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>P90D</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4084,33 +4084,33 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2017-black-tesla-model-x/c1107044</t>
+          <t>https://shift.com/car/2019-black-tesla-model-3/c101587</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D90" t="n">
-        <v>65950</v>
+        <v>41450</v>
       </c>
       <c r="E90" t="n">
-        <v>48000</v>
+        <v>26000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>90D</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4125,14 +4125,14 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2017-silver-tesla-model-s/c109083</t>
+          <t>https://shift.com/car/2013-tesla-model-s/c157165</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4141,17 +4141,17 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D91" t="n">
-        <v>50950</v>
+        <v>34550</v>
       </c>
       <c r="E91" t="n">
-        <v>42000</v>
+        <v>51000</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4161,38 +4161,38 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SALE PENDING</t>
+          <t>COMING SOON</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://shift.com/car/2019-white-tesla-model-3/c127417</t>
+          <t>https://shift.com/car/2016-silver-tesla-model-x/c117171</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D92" t="n">
-        <v>40950</v>
+        <v>54450</v>
       </c>
       <c r="E92" t="n">
-        <v>18000</v>
+        <v>59000</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4202,176 +4202,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SALE PENDING</t>
+          <t>COMING SOON</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>https://shift.com/car/2018-black-tesla-model-3/c140548</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D93" t="n">
-        <v>46500</v>
-      </c>
-      <c r="E93" t="n">
-        <v>29000</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Long Range Battery</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>SALE PENDING</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>https://shift.com/car/2020-white-tesla-model-3/c147096</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D94" t="n">
-        <v>41950</v>
-      </c>
-      <c r="E94" t="n">
-        <v>13000</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Standard Range Plus</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>SALE PENDING</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>https://shift.com/car/2016-silver-tesla-model-x/c117171</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Model X</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D95" t="n">
-        <v>54450</v>
-      </c>
-      <c r="E95" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>90D</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>COMING SOON</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://shiftcars1.imgix.net/content/con1BrTen8w7U1FV1kZBD5mYMixSDGN6495owu6PjpRVG7HfNiAZyC?w=500&amp;auto=format%2Ccompress</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>https://shift.com/car/2013-tesla-model-s/c157165</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Model S</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34550</v>
-      </c>
-      <c r="E96" t="n">
-        <v>51000</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Performance</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>COMING SOON</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://shiftcars1.imgix.net/content/con1YVrUxI97ZCXSJAcnQ90clUjknJHSGd4SJblfUHq5vUiAmwba2v?w=500&amp;auto=format%2Ccompress</t>
+          <t>https://shiftcars1.imgix.net/content/con1VHw9oN0x2WkEKdIFBgpJK6xbf5q7LoJAd9y0uaIrTDNCB30kfV?w=500&amp;auto=format%2Ccompress</t>
         </is>
       </c>
     </row>
